--- a/Excel/PlayerLevel.xlsx
+++ b/Excel/PlayerLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13058772-6A3E-47CD-918B-AA62B88E0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC2AAB-71AD-4C34-B203-6031450A1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8820" windowWidth="16440" windowHeight="28320" xr2:uid="{A874A63C-932E-42E4-9733-389BC85277EF}"/>
   </bookViews>
@@ -36,35 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gather</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gear</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Level0</t>
     <phoneticPr fontId="1"/>
@@ -82,15 +54,7 @@
     <t>Level4</t>
   </si>
   <si>
-    <t>Bridge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Crossing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>StartGear</t>
+    <t>TypeID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,7 +442,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -488,27 +452,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -527,8 +491,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -547,8 +511,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -567,8 +531,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -587,8 +551,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -607,7 +571,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
@@ -627,8 +591,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -647,8 +611,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -667,8 +631,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/Excel/PlayerLevel.xlsx
+++ b/Excel/PlayerLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC2AAB-71AD-4C34-B203-6031450A1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F96307-6837-4C96-9053-1140F69D90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8820" windowWidth="16440" windowHeight="28320" xr2:uid="{A874A63C-932E-42E4-9733-389BC85277EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A874A63C-932E-42E4-9733-389BC85277EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -478,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
